--- a/data/BOC/APEP/URIN/Unrelated Individuals.xlsx
+++ b/data/BOC/APEP/URIN/Unrelated Individuals.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="URIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,41 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>ANINDIVTT</t>
-  </si>
-  <si>
-    <t>All Sexes</t>
-  </si>
-  <si>
-    <t>ANINDIVMT</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>ANINDIVFT</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:66">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1959</v>
@@ -591,19 +558,27 @@
       <c r="BK1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>3</v>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:66">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ANINDIVTT</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>10699</v>
@@ -791,55 +766,61 @@
       <c r="BK2" t="n">
         <v>62293</v>
       </c>
-      <c r="BL2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>5</v>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>ANINDIVTT</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>All Sexes</t>
+        </is>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="s"/>
-      <c r="AA3" t="s"/>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="s"/>
-      <c r="AF3" t="s"/>
-      <c r="AG3" t="s"/>
-      <c r="AH3" t="s"/>
-      <c r="AI3" t="s"/>
-      <c r="AJ3" t="s"/>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ANINDIVMT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
         <v>18385</v>
       </c>
@@ -921,55 +902,61 @@
       <c r="BK3" t="n">
         <v>30409</v>
       </c>
-      <c r="BL3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>7</v>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>ANINDIVMT</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="BN3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
-      <c r="Z4" t="s"/>
-      <c r="AA4" t="s"/>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
-      <c r="AF4" t="s"/>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ANINDIVFT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="n">
         <v>20153</v>
       </c>
@@ -1051,11 +1038,15 @@
       <c r="BK4" t="n">
         <v>31884</v>
       </c>
-      <c r="BL4" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>9</v>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>ANINDIVFT</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="BN4" t="n">
         <v>2</v>
